--- a/玩客猴/桃子.xlsx
+++ b/玩客猴/桃子.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,12 +48,16 @@
     <t>上一列对应收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>多一个收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +70,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -89,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -371,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,8 +413,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -420,7 +435,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -434,11 +449,11 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E41" si="0">2*B3*(1+D3)</f>
+        <f t="shared" ref="E3:E40" si="0">2*B3*(1+D3)</f>
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -456,7 +471,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -474,7 +489,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -492,7 +507,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -510,7 +525,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -528,7 +543,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -546,7 +561,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -564,7 +579,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -582,7 +597,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -600,7 +615,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -617,8 +632,11 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -635,8 +653,11 @@
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -653,8 +674,11 @@
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -671,8 +695,11 @@
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -689,8 +716,11 @@
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -701,22 +731,17 @@
         <v>189915</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ref="F15:F41" si="1">INT(100/B18-1)</f>
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ref="G15:G41" si="2">2*B18*(1+F18)</f>
         <v>176</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -727,22 +752,17 @@
         <v>184028</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -753,22 +773,18 @@
         <v>179453</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="H20" s="1">
+        <f>2*B20</f>
         <v>38</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -779,22 +795,18 @@
         <v>174339</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ref="H21:H41" si="1">2*B21</f>
         <v>36</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -805,22 +817,18 @@
         <v>32521</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -838,15 +846,19 @@
         <v>32</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F18:F41" si="2">INT(100/B23-1)</f>
         <v>5</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G18:G41" si="3">2*B23*(1+F23)</f>
         <v>192</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -864,15 +876,19 @@
         <v>32</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -890,15 +906,19 @@
         <v>28</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -916,15 +936,19 @@
         <v>26</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>182</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -942,15 +966,19 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>182</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -968,15 +996,19 @@
         <v>24</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -994,15 +1026,19 @@
         <v>24</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1020,15 +1056,19 @@
         <v>22</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1046,15 +1086,19 @@
         <v>110</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1072,15 +1116,19 @@
         <v>20</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1098,15 +1146,19 @@
         <v>20</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1124,15 +1176,19 @@
         <v>20</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1150,15 +1206,19 @@
         <v>162</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1176,15 +1236,19 @@
         <v>162</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1202,15 +1266,19 @@
         <v>144</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1228,15 +1296,19 @@
         <v>144</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1254,15 +1326,19 @@
         <v>80</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1280,15 +1356,19 @@
         <v>16</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1306,18 +1386,22 @@
         <v>16</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E42">
         <f>SUM(E2:E41)</f>
-        <v>4522</v>
+        <v>5146</v>
       </c>
     </row>
   </sheetData>

--- a/玩客猴/桃子.xlsx
+++ b/玩客猴/桃子.xlsx
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -449,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E40" si="0">2*B3*(1+D3)</f>
+        <f t="shared" ref="E3:E39" si="0">2*B3*(1+D3)</f>
         <v>216</v>
       </c>
     </row>
@@ -632,9 +632,6 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="H13">
-        <v>20</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -653,9 +650,6 @@
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="H14">
-        <v>16</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -674,9 +668,6 @@
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="H15">
-        <v>24</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -695,9 +686,6 @@
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="H16">
-        <v>24</v>
-      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -716,9 +704,6 @@
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="H17">
-        <v>24</v>
-      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -737,9 +722,6 @@
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="H18">
-        <v>24</v>
-      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -758,9 +740,6 @@
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="H19">
-        <v>24</v>
-      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -779,10 +758,7 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="H20" s="1">
-        <f>2*B20</f>
-        <v>38</v>
-      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -801,10 +777,7 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" ref="H21:H41" si="1">2*B21</f>
-        <v>36</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -823,110 +796,96 @@
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="H22" s="1">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>16</v>
       </c>
       <c r="C23">
-        <v>183951</v>
+        <v>180960</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ref="F18:F41" si="2">INT(100/B23-1)</f>
-        <v>5</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ref="G18:G41" si="3">2*B23*(1+F23)</f>
-        <v>192</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>180960</v>
+        <v>8101</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" ref="F23:F40" si="1">INT(100/B24-1)</f>
+        <v>6</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
-        <v>192</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f t="shared" ref="G23:G40" si="2">2*B24*(1+F24)</f>
+        <v>196</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H23:H40" si="3">2*B24</f>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>8101</v>
+        <v>30526</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
-        <v>196</v>
+        <f t="shared" si="2"/>
+        <v>182</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>13</v>
       </c>
       <c r="C26">
-        <v>30526</v>
+        <v>62858</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -936,177 +895,177 @@
         <v>26</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>62858</v>
+        <v>176183</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
-        <v>182</v>
+        <f t="shared" si="2"/>
+        <v>192</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>176183</v>
+        <v>1785</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29">
-        <v>1785</v>
+        <v>188744</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
-        <v>192</v>
+        <f t="shared" si="2"/>
+        <v>198</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>11</v>
       </c>
       <c r="C30">
-        <v>188744</v>
+        <v>63861</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>63861</v>
+        <v>152884</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
-        <v>198</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
       <c r="C32">
-        <v>152884</v>
+        <v>4979</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1116,27 +1075,27 @@
         <v>20</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33">
-        <v>4979</v>
+        <v>135105</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1146,57 +1105,57 @@
         <v>20</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>157958</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C34">
-        <v>135105</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
       <c r="G34">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>198</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>9</v>
       </c>
       <c r="C35">
-        <v>157958</v>
+        <v>100872</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -1206,57 +1165,57 @@
         <v>162</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>100872</v>
+        <v>139794</v>
       </c>
       <c r="D36">
         <v>8</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="G36">
-        <f t="shared" si="3"/>
-        <v>198</v>
+        <f t="shared" si="2"/>
+        <v>192</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>8</v>
       </c>
       <c r="C37">
-        <v>139794</v>
+        <v>131902</v>
       </c>
       <c r="D37">
         <v>8</v>
@@ -1266,142 +1225,112 @@
         <v>144</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>8</v>
       </c>
       <c r="C38">
-        <v>131902</v>
+        <v>109408</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>8</v>
       </c>
       <c r="C39">
-        <v>109408</v>
+        <v>166525</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>8</v>
       </c>
       <c r="C40">
-        <v>166525</v>
+        <v>143284</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f>2*B40*(1+D40)</f>
         <v>16</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <v>143284</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
       <c r="E41">
-        <f>2*B41*(1+D41)</f>
-        <v>16</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="3"/>
-        <v>192</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E42">
-        <f>SUM(E2:E41)</f>
-        <v>5146</v>
+        <f>SUM(E2:E40)</f>
+        <v>5338</v>
       </c>
     </row>
   </sheetData>
